--- a/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
+++ b/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
@@ -779,13 +779,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DCFA44E-C344-467A-BBBB-65241C55C767}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C800F53-5994-465C-9839-C1619BF69BAE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1344115-446D-4212-AF7F-466FC97413F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C2FB7B2-257D-44EA-A6DA-7E9153614693}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{897502F9-9122-4895-AA90-F1214FFAB917}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983E576D-F87D-4215-B1ED-8F80C835DE8A}"/>
 </file>
--- a/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
+++ b/InputData/trans/GCApLC/Grams CO2e Avoided per LCFS Credit.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\GCApLC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4339663C70F76739F3FF6CA140434914EC568D6F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="13875"/>
+    <workbookView xWindow="12375" yWindow="1965" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="GCApLC" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,6 +133,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -166,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,9 +216,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +268,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,10 +460,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -493,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -527,6 +580,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -760,32 +831,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C800F53-5994-465C-9839-C1619BF69BAE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983E576D-F87D-4215-B1ED-8F80C835DE8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C2FB7B2-257D-44EA-A6DA-7E9153614693}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C2FB7B2-257D-44EA-A6DA-7E9153614693}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983E576D-F87D-4215-B1ED-8F80C835DE8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C800F53-5994-465C-9839-C1619BF69BAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>